--- a/data/trans_orig/P1435-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7721F013-D3CB-425A-A7A7-8F9D936D35F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B8B0D8-2BAE-4BCA-8C5F-93A73B71A8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC79DF38-3827-4D21-BC1C-ACAF00BC092A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A303F91C-EBAA-4377-A78B-D1CCE6F3F023}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="129">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -146,19 +146,19 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -167,19 +167,19 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -191,37 +191,37 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -230,37 +230,37 @@
     <t>6,51%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
@@ -275,13 +275,13 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,05%</t>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -290,19 +290,19 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -311,34 +311,22 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
     <t>1,88%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>98,53%</t>
@@ -350,28 +338,25 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -380,16 +365,16 @@
     <t>6,47%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>93,31%</t>
   </si>
   <si>
-    <t>91,29%</t>
+    <t>91,18%</t>
   </si>
   <si>
     <t>94,73%</t>
@@ -398,49 +383,49 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,67%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,51%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>7,39%</t>
   </si>
   <si>
     <t>93,73%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
 </sst>
 </file>
@@ -852,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C837782-4D25-43DD-B748-64F132879CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1BBFDE-C7D9-4BC8-9120-D384AE3AB982}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1775,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD044C60-708E-4CA3-8D3F-5D18ACF7705F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F9C286-F7B9-4080-A9A3-A90A58BF3705}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2698,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E896BE9-1A4A-4B4E-BBE9-CFDC1597EA4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA8CB4D-462B-4E3E-AB26-BE70FC47E334}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3283,10 +3268,10 @@
         <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3298,10 +3283,10 @@
         <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3314,13 @@
         <v>530361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -3344,13 +3329,13 @@
         <v>530361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3463,13 @@
         <v>66388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -3493,13 +3478,13 @@
         <v>66388</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3512,13 @@
         <v>3465712</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>3259</v>
@@ -3542,13 +3527,13 @@
         <v>3465712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8703858A-CAA4-49AF-8AC1-BD91FB023A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DC9BB-4AF8-4695-A626-8C3F58FB259A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3638,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3758,13 +3743,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3773,13 +3758,13 @@
         <v>2762</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3792,13 @@
         <v>11695</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3822,13 +3807,13 @@
         <v>11695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3841,13 @@
         <v>820842</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M6" s="7">
         <v>1411</v>
@@ -3871,13 +3856,13 @@
         <v>820842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,10 +3944,10 @@
         <v>75</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3974,10 +3959,10 @@
         <v>75</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3990,13 @@
         <v>145403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M9" s="7">
         <v>159</v>
@@ -4020,13 +4005,13 @@
         <v>145403</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,31 +4036,31 @@
         <v>2755</v>
       </c>
       <c r="I10" s="7">
-        <v>2098402</v>
+        <v>2098401</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>2755</v>
       </c>
       <c r="N10" s="7">
-        <v>2098402</v>
+        <v>2098401</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4085,7 @@
         <v>2920</v>
       </c>
       <c r="I11" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>23</v>
@@ -4115,7 +4100,7 @@
         <v>2920</v>
       </c>
       <c r="N11" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>23</v>
@@ -4154,13 +4139,13 @@
         <v>964</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4169,13 +4154,13 @@
         <v>964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4188,13 @@
         <v>72021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -4218,13 +4203,13 @@
         <v>72021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4237,13 @@
         <v>639140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>917</v>
@@ -4267,13 +4252,13 @@
         <v>639140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4337,13 @@
         <v>8717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4367,13 +4352,13 @@
         <v>8717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4386,13 @@
         <v>229119</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -4416,13 +4401,13 @@
         <v>229119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4435,13 @@
         <v>3558384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>5083</v>
@@ -4465,13 +4450,13 @@
         <v>3558384</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1435-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B8B0D8-2BAE-4BCA-8C5F-93A73B71A8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C12C7B2-57A1-4635-B38D-73A3BC965F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A303F91C-EBAA-4377-A78B-D1CCE6F3F023}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B3BD0DA-50D9-40EE-ABEE-2BB514AACE42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="131">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -146,19 +146,19 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -167,19 +167,19 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -191,37 +191,37 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -230,40 +230,34 @@
     <t>6,51%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -275,13 +269,13 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -290,19 +284,19 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -311,42 +305,57 @@
     <t>3,42%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
     <t>96,58%</t>
   </si>
   <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
     <t>98,27%</t>
   </si>
   <si>
@@ -381,9 +390,6 @@
   </si>
   <si>
     <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
   </si>
   <si>
     <t>10,11%</t>
@@ -837,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1BBFDE-C7D9-4BC8-9120-D384AE3AB982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D49C21-114B-4B5D-836A-34F6B002DA0A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1760,7 +1766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F9C286-F7B9-4080-A9A3-A90A58BF3705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544B76BB-0B84-4DAD-A1C3-533D37291E00}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2546,7 +2552,7 @@
         <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -2561,7 +2567,7 @@
         <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2595,13 @@
         <v>3413611</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M18" s="7">
         <v>3159</v>
@@ -2604,13 +2610,13 @@
         <v>3413611</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA8CB4D-462B-4E3E-AB26-BE70FC47E334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389A9E9D-C1E9-4EFF-85A1-69B6AE2A8535}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2700,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2826,7 +2832,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2841,7 +2847,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2875,13 @@
         <v>3785</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2884,13 +2890,13 @@
         <v>3785</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2924,13 @@
         <v>990875</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M6" s="7">
         <v>888</v>
@@ -2933,13 +2939,13 @@
         <v>990875</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3039,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3073,13 @@
         <v>43823</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -3082,13 +3088,13 @@
         <v>43823</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3122,13 @@
         <v>1944477</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M10" s="7">
         <v>1864</v>
@@ -3131,13 +3137,13 @@
         <v>1944477</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3228,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3237,7 +3243,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3271,13 @@
         <v>18779</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3280,13 +3286,13 @@
         <v>18779</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,10 +3323,10 @@
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -3332,10 +3338,10 @@
         <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3469,13 @@
         <v>66388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -3478,13 +3484,13 @@
         <v>66388</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3518,13 @@
         <v>3465712</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>3259</v>
@@ -3527,13 +3533,13 @@
         <v>3465712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DC9BB-4AF8-4695-A626-8C3F58FB259A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D9FC4-44B1-48AF-ACE1-FE696814AF3A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3743,13 +3749,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3758,13 +3764,13 @@
         <v>2762</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3798,13 @@
         <v>11695</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3807,13 +3813,13 @@
         <v>11695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3847,13 @@
         <v>820842</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" s="7">
         <v>1411</v>
@@ -3856,13 +3862,13 @@
         <v>820842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3947,13 @@
         <v>4991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3956,13 +3962,13 @@
         <v>4991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3996,13 @@
         <v>145403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M9" s="7">
         <v>159</v>
@@ -4005,13 +4011,13 @@
         <v>145403</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4045,13 @@
         <v>2098401</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>2755</v>
@@ -4054,13 +4060,13 @@
         <v>2098401</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4145,13 @@
         <v>964</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4154,13 +4160,13 @@
         <v>964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4194,13 @@
         <v>72021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -4203,13 +4209,13 @@
         <v>72021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4243,13 @@
         <v>639140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>917</v>
@@ -4252,13 +4258,13 @@
         <v>639140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4343,13 @@
         <v>8717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4352,13 +4358,13 @@
         <v>8717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4392,13 @@
         <v>229119</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -4401,13 +4407,13 @@
         <v>229119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4441,13 @@
         <v>3558384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>5083</v>
@@ -4450,13 +4456,13 @@
         <v>3558384</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1435-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C12C7B2-57A1-4635-B38D-73A3BC965F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{349F9815-5C2C-4B45-B765-8FC8B72438A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B3BD0DA-50D9-40EE-ABEE-2BB514AACE42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCC3EB1E-7A78-4552-AE02-5EC9F14419B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="116">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -71,211 +71,190 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>96,13%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>96,71%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,01%</t>
+    <t>99,05%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -284,154 +263,130 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
 </sst>
 </file>
@@ -843,8 +798,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D49C21-114B-4B5D-836A-34F6B002DA0A}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D987C9-E4AA-47DF-B616-4AA19DDC93A4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -974,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>46199</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -989,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>46199</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1023,10 +978,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>1247</v>
       </c>
       <c r="I5" s="7">
-        <v>46199</v>
+        <v>1268914</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1038,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>1247</v>
       </c>
       <c r="N5" s="7">
-        <v>46199</v>
+        <v>1268914</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1056,7 +1011,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1072,40 +1027,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>1247</v>
+        <v>1291</v>
       </c>
       <c r="I6" s="7">
-        <v>1268914</v>
+        <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1291</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1315113</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1247</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1268914</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1121,42 +1078,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>1291</v>
+        <v>166</v>
       </c>
       <c r="I7" s="7">
-        <v>1315113</v>
+        <v>162412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>1291</v>
+        <v>166</v>
       </c>
       <c r="N7" s="7">
-        <v>1315113</v>
+        <v>162412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1172,40 +1127,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1388</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1425261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1388</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1425261</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1221,40 +1176,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>166</v>
+        <v>1554</v>
       </c>
       <c r="I9" s="7">
-        <v>162412</v>
+        <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1554</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1587673</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="7">
-        <v>166</v>
-      </c>
-      <c r="N9" s="7">
-        <v>162412</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1270,40 +1227,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1388</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>1425261</v>
+        <v>51535</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="M10" s="7">
-        <v>1388</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>1425261</v>
+        <v>51535</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1319,42 +1276,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1554</v>
+        <v>403</v>
       </c>
       <c r="I11" s="7">
-        <v>1587673</v>
+        <v>424877</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>1554</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>1587673</v>
+        <v>424877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1370,40 +1325,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>476412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1419,10 +1376,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>51535</v>
+        <v>260146</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>34</v>
@@ -1434,10 +1391,10 @@
         <v>36</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="N13" s="7">
-        <v>51535</v>
+        <v>260146</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>34</v>
@@ -1452,7 +1409,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1468,10 +1425,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>403</v>
+        <v>3038</v>
       </c>
       <c r="I14" s="7">
-        <v>424877</v>
+        <v>3119052</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -1483,10 +1440,10 @@
         <v>39</v>
       </c>
       <c r="M14" s="7">
-        <v>403</v>
+        <v>3038</v>
       </c>
       <c r="N14" s="7">
-        <v>424877</v>
+        <v>3119052</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1517,257 +1474,59 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>452</v>
+        <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>476412</v>
+        <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>3297</v>
       </c>
       <c r="N15" s="7">
-        <v>476412</v>
+        <v>3379198</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="7">
-        <v>259</v>
-      </c>
-      <c r="I17" s="7">
-        <v>260146</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="7">
-        <v>259</v>
-      </c>
-      <c r="N17" s="7">
-        <v>260146</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3038</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3038</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3297</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544B76BB-0B84-4DAD-A1C3-533D37291E00}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF6B51-8FB7-4358-B681-0D5C02E02B9F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1783,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1897,34 +1656,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>14636</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>14636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,40 +1705,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>1233</v>
       </c>
       <c r="I5" s="7">
-        <v>14636</v>
+        <v>1323160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>1233</v>
       </c>
       <c r="N5" s="7">
-        <v>14636</v>
+        <v>1323160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1995,40 +1754,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1323160</v>
+        <v>1337796</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="N6" s="7">
-        <v>1323160</v>
+        <v>1337796</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2044,42 +1805,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>1247</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>92925</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7">
-        <v>1247</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>1337796</v>
+        <v>92925</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2095,40 +1854,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1542</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1661667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1542</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1661667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2144,40 +1903,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>91</v>
+        <v>1633</v>
       </c>
       <c r="I9" s="7">
-        <v>92925</v>
+        <v>1754592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>91</v>
+        <v>1633</v>
       </c>
       <c r="N9" s="7">
-        <v>92925</v>
+        <v>1754592</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2193,40 +1954,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1542</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>1661667</v>
+        <v>29848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1542</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>1661667</v>
+        <v>29848</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2242,42 +2003,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1633</v>
+        <v>384</v>
       </c>
       <c r="I11" s="7">
-        <v>1754592</v>
+        <v>428783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
-        <v>1633</v>
+        <v>384</v>
       </c>
       <c r="N11" s="7">
-        <v>1754592</v>
+        <v>428783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2293,40 +2052,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>458631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2342,40 +2103,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>29848</v>
+        <v>137409</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="N13" s="7">
-        <v>29848</v>
+        <v>137409</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2391,34 +2152,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>384</v>
+        <v>3159</v>
       </c>
       <c r="I14" s="7">
-        <v>428783</v>
+        <v>3413611</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="M14" s="7">
-        <v>384</v>
+        <v>3159</v>
       </c>
       <c r="N14" s="7">
-        <v>428783</v>
+        <v>3413611</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,257 +2201,59 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>412</v>
+        <v>3292</v>
       </c>
       <c r="I15" s="7">
-        <v>458631</v>
+        <v>3551020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>412</v>
+        <v>3292</v>
       </c>
       <c r="N15" s="7">
-        <v>458631</v>
+        <v>3551020</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="7">
-        <v>133</v>
-      </c>
-      <c r="I17" s="7">
-        <v>137409</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="7">
-        <v>133</v>
-      </c>
-      <c r="N17" s="7">
-        <v>137409</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3159</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3413611</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3159</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3413611</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3292</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3551020</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3292</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3551020</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389A9E9D-C1E9-4EFF-85A1-69B6AE2A8535}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A8636E-C6F2-4AA9-B3E5-1CF259B32F6C}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2706,7 +2269,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2820,34 +2383,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,40 +2432,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>888</v>
       </c>
       <c r="I5" s="7">
-        <v>3785</v>
+        <v>990875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>888</v>
       </c>
       <c r="N5" s="7">
-        <v>3785</v>
+        <v>990875</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2918,40 +2481,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="I6" s="7">
-        <v>990875</v>
+        <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="N6" s="7">
-        <v>990875</v>
+        <v>994660</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2967,42 +2532,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>892</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>994660</v>
+        <v>43823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
-        <v>892</v>
+        <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>994660</v>
+        <v>43823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3018,40 +2581,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1864</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1944477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1864</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1944477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3067,40 +2630,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>44</v>
+        <v>1908</v>
       </c>
       <c r="I9" s="7">
-        <v>43823</v>
+        <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>44</v>
+        <v>1908</v>
       </c>
       <c r="N9" s="7">
-        <v>43823</v>
+        <v>1988300</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3116,40 +2681,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1864</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>1944477</v>
+        <v>18779</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7">
-        <v>1864</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>1944477</v>
+        <v>18779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3165,42 +2730,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1908</v>
+        <v>507</v>
       </c>
       <c r="I11" s="7">
-        <v>1988300</v>
+        <v>530361</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
-        <v>1908</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>1988300</v>
+        <v>530361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -3216,40 +2779,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>549140</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3265,40 +2830,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>18779</v>
+        <v>66388</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>18779</v>
+        <v>66388</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3314,34 +2879,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>507</v>
+        <v>3259</v>
       </c>
       <c r="I14" s="7">
-        <v>530361</v>
+        <v>3465712</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>3259</v>
       </c>
       <c r="N14" s="7">
-        <v>530361</v>
+        <v>3465712</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,257 +2928,59 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>526</v>
+        <v>3326</v>
       </c>
       <c r="I15" s="7">
-        <v>549140</v>
+        <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>526</v>
+        <v>3326</v>
       </c>
       <c r="N15" s="7">
-        <v>549140</v>
+        <v>3532100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="7">
-        <v>67</v>
-      </c>
-      <c r="I17" s="7">
-        <v>66388</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="7">
-        <v>67</v>
-      </c>
-      <c r="N17" s="7">
-        <v>66388</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3259</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3465712</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3259</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3465712</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3326</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3532100</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3326</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3532100</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D9FC4-44B1-48AF-ACE1-FE696814AF3A}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39757407-AD08-426C-A16B-C93B441F6CD0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3629,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3743,34 +3110,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>2762</v>
+        <v>11695</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>2762</v>
+        <v>11695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,40 +3159,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>1411</v>
       </c>
       <c r="I5" s="7">
-        <v>11695</v>
+        <v>820842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>1411</v>
       </c>
       <c r="N5" s="7">
-        <v>11695</v>
+        <v>820842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3841,40 +3208,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>820842</v>
+        <v>832537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="N6" s="7">
-        <v>820842</v>
+        <v>832537</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -3890,42 +3259,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>1426</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>835299</v>
+        <v>145403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>1426</v>
+        <v>159</v>
       </c>
       <c r="N7" s="7">
-        <v>835299</v>
+        <v>145403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3941,40 +3308,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>2755</v>
       </c>
       <c r="I8" s="7">
-        <v>4991</v>
+        <v>2098401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>2755</v>
       </c>
       <c r="N8" s="7">
-        <v>4991</v>
+        <v>2098401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3990,40 +3357,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>2914</v>
       </c>
       <c r="I9" s="7">
-        <v>145403</v>
+        <v>2243804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>159</v>
+        <v>2914</v>
       </c>
       <c r="N9" s="7">
-        <v>145403</v>
+        <v>2243804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -4039,40 +3408,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2755</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>2098401</v>
+        <v>72022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
-        <v>2755</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>2098401</v>
+        <v>72022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4088,42 +3457,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2920</v>
+        <v>917</v>
       </c>
       <c r="I11" s="7">
-        <v>2248795</v>
+        <v>639140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
-        <v>2920</v>
+        <v>917</v>
       </c>
       <c r="N11" s="7">
-        <v>2248795</v>
+        <v>639140</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -4139,40 +3506,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="I12" s="7">
-        <v>964</v>
+        <v>711162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="N12" s="7">
-        <v>964</v>
+        <v>711162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4188,40 +3557,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="I13" s="7">
-        <v>72021</v>
+        <v>229119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="N13" s="7">
-        <v>72021</v>
+        <v>229119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4237,34 +3606,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>917</v>
+        <v>5083</v>
       </c>
       <c r="I14" s="7">
-        <v>639140</v>
+        <v>3558385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
-        <v>917</v>
+        <v>5083</v>
       </c>
       <c r="N14" s="7">
-        <v>639140</v>
+        <v>3558385</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,249 +3655,51 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>1001</v>
+        <v>5338</v>
       </c>
       <c r="I15" s="7">
-        <v>712126</v>
+        <v>3787504</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1001</v>
+        <v>5338</v>
       </c>
       <c r="N15" s="7">
-        <v>712126</v>
+        <v>3787504</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8717</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8717</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="7">
-        <v>255</v>
-      </c>
-      <c r="I17" s="7">
-        <v>229119</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="7">
-        <v>255</v>
-      </c>
-      <c r="N17" s="7">
-        <v>229119</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5083</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3558384</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="7">
-        <v>5083</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3558384</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5347</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3796220</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5347</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3796220</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
+      <c r="A16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349F9815-5C2C-4B45-B765-8FC8B72438A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22144C29-7BF4-400A-85C4-AD5A1944ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCC3EB1E-7A78-4552-AE02-5EC9F14419B1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{775EFDDF-552C-4298-A587-761CC4B7BFC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -317,76 +317,76 @@
     <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D987C9-E4AA-47DF-B616-4AA19DDC93A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D01424-7A5A-4133-9257-89986DE33D66}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1428,7 +1428,7 @@
         <v>3038</v>
       </c>
       <c r="I14" s="7">
-        <v>3119052</v>
+        <v>3119051</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -1443,7 +1443,7 @@
         <v>3038</v>
       </c>
       <c r="N14" s="7">
-        <v>3119052</v>
+        <v>3119051</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1477,7 +1477,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1492,7 +1492,7 @@
         <v>3297</v>
       </c>
       <c r="N15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF6B51-8FB7-4358-B681-0D5C02E02B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F8730-7151-455E-B93D-31425AE253FB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1708,7 +1708,7 @@
         <v>1233</v>
       </c>
       <c r="I5" s="7">
-        <v>1323160</v>
+        <v>1323161</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>45</v>
@@ -1723,7 +1723,7 @@
         <v>1233</v>
       </c>
       <c r="N5" s="7">
-        <v>1323160</v>
+        <v>1323161</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>45</v>
@@ -1757,7 +1757,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1772,7 +1772,7 @@
         <v>1247</v>
       </c>
       <c r="N6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A8636E-C6F2-4AA9-B3E5-1CF259B32F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC070472-F651-48B8-83E2-12EF06D708A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39757407-AD08-426C-A16B-C93B441F6CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E26A59-CF7C-4C68-908F-3F74322AE7C1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>11695</v>
+        <v>10879</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -3128,7 +3128,7 @@
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>11695</v>
+        <v>10879</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>92</v>
@@ -3162,7 +3162,7 @@
         <v>1411</v>
       </c>
       <c r="I5" s="7">
-        <v>820842</v>
+        <v>741705</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>95</v>
@@ -3177,7 +3177,7 @@
         <v>1411</v>
       </c>
       <c r="N5" s="7">
-        <v>820842</v>
+        <v>741705</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>95</v>
@@ -3211,7 +3211,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832537</v>
+        <v>752584</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3226,7 +3226,7 @@
         <v>1425</v>
       </c>
       <c r="N6" s="7">
-        <v>832537</v>
+        <v>752584</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3262,7 +3262,7 @@
         <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>145403</v>
+        <v>189545</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>98</v>
@@ -3277,7 +3277,7 @@
         <v>159</v>
       </c>
       <c r="N7" s="7">
-        <v>145403</v>
+        <v>189545</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>98</v>
@@ -3311,7 +3311,7 @@
         <v>2755</v>
       </c>
       <c r="I8" s="7">
-        <v>2098401</v>
+        <v>2042887</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>101</v>
@@ -3326,7 +3326,7 @@
         <v>2755</v>
       </c>
       <c r="N8" s="7">
-        <v>2098401</v>
+        <v>2042887</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>101</v>
@@ -3360,7 +3360,7 @@
         <v>2914</v>
       </c>
       <c r="I9" s="7">
-        <v>2243804</v>
+        <v>2232432</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>2914</v>
       </c>
       <c r="N9" s="7">
-        <v>2243804</v>
+        <v>2232432</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3411,7 +3411,7 @@
         <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>72022</v>
+        <v>66403</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>104</v>
@@ -3426,7 +3426,7 @@
         <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>72022</v>
+        <v>66403</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>104</v>
@@ -3460,7 +3460,7 @@
         <v>917</v>
       </c>
       <c r="I11" s="7">
-        <v>639140</v>
+        <v>591505</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>107</v>
@@ -3475,7 +3475,7 @@
         <v>917</v>
       </c>
       <c r="N11" s="7">
-        <v>639140</v>
+        <v>591505</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>107</v>
@@ -3509,7 +3509,7 @@
         <v>999</v>
       </c>
       <c r="I12" s="7">
-        <v>711162</v>
+        <v>657908</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3524,7 +3524,7 @@
         <v>999</v>
       </c>
       <c r="N12" s="7">
-        <v>711162</v>
+        <v>657908</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3560,7 +3560,7 @@
         <v>255</v>
       </c>
       <c r="I13" s="7">
-        <v>229119</v>
+        <v>266826</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>110</v>
@@ -3575,7 +3575,7 @@
         <v>255</v>
       </c>
       <c r="N13" s="7">
-        <v>229119</v>
+        <v>266826</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>110</v>
@@ -3609,7 +3609,7 @@
         <v>5083</v>
       </c>
       <c r="I14" s="7">
-        <v>3558385</v>
+        <v>3376098</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>113</v>
@@ -3624,7 +3624,7 @@
         <v>5083</v>
       </c>
       <c r="N14" s="7">
-        <v>3558385</v>
+        <v>3376098</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>113</v>
@@ -3658,7 +3658,7 @@
         <v>5338</v>
       </c>
       <c r="I15" s="7">
-        <v>3787504</v>
+        <v>3642924</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3673,7 +3673,7 @@
         <v>5338</v>
       </c>
       <c r="N15" s="7">
-        <v>3787504</v>
+        <v>3642924</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
